--- a/pitcher_matchups_2025-08-17.xlsx
+++ b/pitcher_matchups_2025-08-17.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="92">
   <si>
     <t>StartTime</t>
   </si>
@@ -285,18 +285,22 @@
 Zach McKinstry (3B)</t>
   </si>
   <si>
+    <t>Adrian Del Castillo (C)
+Alek Thomas (CF)
+Corbin Carroll (RF)
+Jake McCarthy (CF)</t>
+  </si>
+  <si>
     <t>Mickey Moniak (RF)
 Yanquiel Fernández (RF)</t>
   </si>
   <si>
-    <t>Alex Bregman (3B)
-Ali Sánchez (C)
-Carlos Narváez (C)
-Ceddanne Rafaela (CF)
-Connor Wong (C)
-Rob Refsnyder (RF)
-Romy Gonzalez (1B)
-Trevor Story (SS)</t>
+    <t>Carson Kelly (C)
+Dansby Swanson (SS)
+Justin Turner (1B)
+Matt Shaw (3B)
+Nico Hoerner (2B)
+Seiya Suzuki (RF)</t>
   </si>
   <si>
     <t>Blaze Alexander (SS)
@@ -323,6 +327,10 @@
   </si>
   <si>
     <t>Wenceel Pérez (RF)</t>
+  </si>
+  <si>
+    <t>Ian Happ (LF)
+Willi Castro (LF)</t>
   </si>
   <si>
     <t>Geraldo Perdomo (SS)
@@ -842,10 +850,10 @@
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
         <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -868,10 +876,10 @@
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -886,7 +894,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -894,10 +902,10 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
         <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -923,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="E10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -938,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -946,7 +954,7 @@
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1">
         <v>4</v>
@@ -987,10 +995,10 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E15" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -998,7 +1006,7 @@
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1">
         <v>5</v>
@@ -1013,10 +1021,10 @@
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="1">
+        <v>7</v>
+      </c>
+      <c r="E17" s="1">
         <v>4</v>
-      </c>
-      <c r="E17" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1039,10 +1047,10 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1050,7 +1058,7 @@
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -1065,7 +1073,7 @@
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="1">
         <v>4</v>
@@ -1076,10 +1084,10 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1091,7 +1099,7 @@
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E23" s="1">
         <v>10</v>
@@ -1131,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1143,10 +1151,10 @@
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E27" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1169,7 +1177,7 @@
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1">
         <v>1</v>
@@ -1180,10 +1188,10 @@
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1195,7 +1203,7 @@
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31" s="1">
         <v>4</v>
@@ -1276,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -1294,7 +1302,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1334,19 +1342,16 @@
         <v>18</v>
       </c>
       <c r="C3" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>83</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1366,35 +1371,35 @@
         <v>81</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>84</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1">
         <v>10</v>
@@ -1407,13 +1412,36 @@
       </c>
       <c r="F6" s="6" t="s">
         <v>85</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <conditionalFormatting sqref="A3:G6">
+  <conditionalFormatting sqref="A3:G7">
     <cfRule type="notContainsBlanks" dxfId="6" priority="9">
       <formula>LEN(TRIM(A3))&gt;0</formula>
     </cfRule>
@@ -1427,7 +1455,7 @@
       <formula>LEN(TRIM(A3))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C3:C6">
+  <conditionalFormatting sqref="C3:C7">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
@@ -1443,7 +1471,7 @@
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D3:D6">
+  <conditionalFormatting sqref="D3:D7">
     <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
